--- a/biology/Botanique/Billbergia_nutans/Billbergia_nutans.xlsx
+++ b/biology/Botanique/Billbergia_nutans/Billbergia_nutans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Billbergia nutans, également appelé Billbergie penchée ou « Larmes de la reine »[1], est une espèce de plantes à fleurs de la famille des Bromeliaceae originaire d'Amérique du Sud.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Billbergia nutans, également appelé Billbergie penchée ou « Larmes de la reine », est une espèce de plantes à fleurs de la famille des Bromeliaceae originaire d'Amérique du Sud.
 </t>
         </is>
       </c>
@@ -511,12 +523,12 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Billbergia linearifolia Baker[2] ;
-Billbergia minuta Mez[2].
-Synonymie taxonomique
-Billbergia nutans var. schimperiana (Wittm. ex Baker) Mez[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Billbergia linearifolia Baker ;
+Billbergia minuta Mez.</t>
         </is>
       </c>
     </row>
@@ -541,13 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Distribution</t>
+          <t>Synonymes</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'espèce se rencontre au sud et au sud-est du Brésil, au nord de l'Argentine, au Paraguay et en Uruguay[3].
-</t>
+          <t>Synonymie taxonomique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Billbergia nutans var. schimperiana (Wittm. ex Baker) Mez.</t>
         </is>
       </c>
     </row>
@@ -572,12 +589,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se rencontre au sud et au sud-est du Brésil, au nord de l'Argentine, au Paraguay et en Uruguay.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Billbergia_nutans</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Billbergia_nutans</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est épiphyte ou hémicryptophyte[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est épiphyte ou hémicryptophyte.
 </t>
         </is>
       </c>
